--- a/long.xlsx
+++ b/long.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
   <si>
     <t>username</t>
   </si>
@@ -157,6 +157,42 @@
   </si>
   <si>
     <t>14020675@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>được phép</t>
+  </si>
+  <si>
+    <t>tên thật</t>
+  </si>
+  <si>
+    <t>Do Thanh Long</t>
+  </si>
+  <si>
+    <t>Tran Thanh Huyen</t>
+  </si>
+  <si>
+    <t>Dao Duc Thinh</t>
+  </si>
+  <si>
+    <t>Le Ba Quoc Huynh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bui Cong Thanh </t>
+  </si>
+  <si>
+    <t>Pham Dung</t>
+  </si>
+  <si>
+    <t>Nguyen Khac Tu</t>
+  </si>
+  <si>
+    <t>Phan Minh Tu</t>
+  </si>
+  <si>
+    <t>Tran Minh Quan</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
 </sst>
 </file>
@@ -508,18 +544,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="29.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -529,8 +568,11 @@
       <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -540,8 +582,11 @@
       <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -551,8 +596,11 @@
       <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -562,8 +610,11 @@
       <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -573,8 +624,11 @@
       <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -584,8 +638,11 @@
       <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -595,8 +652,11 @@
       <c r="C7" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -606,8 +666,11 @@
       <c r="C8" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -617,8 +680,11 @@
       <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -627,6 +693,9 @@
       </c>
       <c r="C10" s="2" t="s">
         <v>42</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -648,21 +717,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="14.42578125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -675,8 +744,11 @@
       <c r="D1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -689,8 +761,11 @@
       <c r="D2" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -704,7 +779,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -717,8 +792,11 @@
       <c r="D4" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>43</v>
       </c>
